--- a/src/resources/Users.xlsx
+++ b/src/resources/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r.petit.de.meurville\workspace-ICBC\reportes\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{369DDD34-2443-4B59-A84E-DBAE33C444D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3852BD5-32D5-474C-9926-69FC17D732B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13305" windowHeight="8460" xr2:uid="{7183AAD5-E8C9-4719-98C4-2243206103FE}"/>
   </bookViews>
@@ -243,16 +243,16 @@
     <t>team</t>
   </si>
   <si>
-    <t>dev</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>functional</t>
-  </si>
-  <si>
     <t>ICBC</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Funcional</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -853,7 +853,7 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -903,7 +903,7 @@
         <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -958,7 +958,7 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,7 +988,7 @@
         <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,7 +1010,7 @@
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
